--- a/Fase 2/Evidencias Proyecto/Cronograma Scrum.xlsx
+++ b/Fase 2/Evidencias Proyecto/Cronograma Scrum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joaquin\Documents\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F72D863-289D-4AE3-8C6D-F220A4043032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF65F5EE-7664-47FB-A669-2F8FFCA99FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{540FB191-5A04-4D26-B059-6A6E5A2EBDE4}"/>
   </bookViews>
@@ -846,7 +846,7 @@
   <dimension ref="B1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1"/>
       <c r="N10" s="42" t="s">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1"/>
       <c r="N11" s="32"/>
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H12" s="1"/>
       <c r="O12" s="32"/>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1"/>
       <c r="P13" s="32"/>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H14" s="1"/>
       <c r="Q14" s="32"/>
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H15" s="1"/>
       <c r="R15" s="32"/>
@@ -1219,7 +1219,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1"/>
       <c r="S16" s="45" t="s">
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H17" s="1"/>
       <c r="S17" s="33"/>
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1"/>
       <c r="T18" s="33"/>
@@ -1375,15 +1375,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E9ABD3EFE8C70C478D82C9ECE5725175" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="bf2ec168e2a7077f01c2f7051da8108b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d1891b4a-5ed2-4696-9d31-a6901ce6ce2d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c5688cdfcc612f1ddabdb65a13a37ba" ns3:_="">
     <xsd:import namespace="d1891b4a-5ed2-4696-9d31-a6901ce6ce2d"/>
@@ -1539,6 +1530,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1548,14 +1548,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E99E8B81-0240-4263-97F5-7938C52477C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{904546BD-303C-40DD-B7A3-362EB7767914}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1569,6 +1561,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E99E8B81-0240-4263-97F5-7938C52477C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
